--- a/resource_api/raporlar/dosyalar/stock_list_fiyatli.xlsx
+++ b/resource_api/raporlar/dosyalar/stock_list_fiyatli.xlsx
@@ -585,34 +585,34 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>112</v>
+        <v>462.79</v>
       </c>
       <c r="G2" s="10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H2" s="11" t="n"/>
       <c r="I2" s="5" t="n"/>
@@ -631,34 +631,34 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>25</v>
+        <v>163.73</v>
       </c>
       <c r="G3" s="10" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11" t="n"/>
       <c r="I3" s="5" t="n"/>
@@ -677,22 +677,22 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Tumbled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>100</v>
+        <v>50.3</v>
       </c>
       <c r="G4" s="10" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H4" s="11" t="n"/>
       <c r="I4" s="5" t="n"/>
@@ -723,34 +723,34 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Desert Silver</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>390</v>
+        <v>50.3</v>
       </c>
       <c r="G5" s="10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H5" s="11" t="n"/>
       <c r="I5" s="5" t="n"/>
@@ -769,34 +769,34 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>25</v>
+        <v>39.54</v>
       </c>
       <c r="G6" s="10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H6" s="11" t="n"/>
       <c r="I6" s="5" t="n"/>
@@ -815,34 +815,34 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>100</v>
+        <v>44.58</v>
       </c>
       <c r="G7" s="10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H7" s="11" t="n"/>
       <c r="I7" s="5" t="n"/>
@@ -861,31 +861,31 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Tumbled</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>20</v>
+        <v>41.86</v>
       </c>
       <c r="G8" s="10" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -917,21 +917,21 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>10</v>
+        <v>32.4</v>
       </c>
       <c r="G9" s="10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Classic Rustic</t>
+          <t>3D Noce Puzzle</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -963,21 +963,21 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>25</v>
+        <v>34.56</v>
       </c>
       <c r="G10" s="10" t="n">
         <v>0</v>
@@ -999,31 +999,31 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>21.6</v>
+        <v>45.9</v>
       </c>
       <c r="G11" s="10" t="n">
         <v>0</v>
@@ -1045,31 +1045,31 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face&amp;Honed</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>165,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.19</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="G12" s="10" t="n">
         <v>0</v>
@@ -1091,31 +1091,31 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Split face&amp;Honed</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>15</v>
+        <v>8.74</v>
       </c>
       <c r="G13" s="10" t="n">
         <v>0</v>
@@ -1137,31 +1137,31 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Scabos - Panel</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>30</v>
+        <v>19.44</v>
       </c>
       <c r="G14" s="10" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Silver Panel 3D</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>41.25</v>
+        <v>19.44</v>
       </c>
       <c r="G15" s="10" t="n">
         <v>0</v>
@@ -1229,31 +1229,31 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Naturella Cream</t>
+          <t>Philadelphia Panel</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bullnose</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
+          <t>18,0</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>50,0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>2,0</t>
         </is>
       </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>16,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="n">
-        <v>75</v>
+        <v>64.8</v>
       </c>
       <c r="G16" s="10" t="n">
         <v>0</v>
@@ -1275,31 +1275,31 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Cubic Beige 3D</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>50.22</v>
+        <v>25.2</v>
       </c>
       <c r="G17" s="10" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Emperador Dark</t>
+          <t>Silver Panel</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1331,21 +1331,21 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>40.18</v>
+        <v>17.82</v>
       </c>
       <c r="G18" s="10" t="n">
         <v>0</v>
@@ -1367,31 +1367,31 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>GL132647</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>59</v>
+        <v>25.92</v>
       </c>
       <c r="G19" s="10" t="n">
         <v>0</v>
@@ -1413,31 +1413,31 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>3D</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>38</v>
+        <v>60.48</v>
       </c>
       <c r="G20" s="10" t="n">
         <v>0</v>
@@ -1459,31 +1459,31 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Honed&amp;Half Bullnose</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7</v>
+        <v>20.93</v>
       </c>
       <c r="G21" s="10" t="n">
         <v>0</v>
@@ -1505,31 +1505,31 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bullnose</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F22" s="2" t="n">
-        <v>23</v>
+        <v>53.94</v>
       </c>
       <c r="G22" s="10" t="n">
         <v>0</v>
@@ -1551,31 +1551,31 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Classic Cubic</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t xml:space="preserve">2,5 </t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="F23" s="2" t="n">
-        <v>0</v>
+        <v>17.12</v>
       </c>
       <c r="G23" s="10" t="n">
         <v>0</v>
@@ -1597,31 +1597,31 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5.4</v>
+        <v>50.22</v>
       </c>
       <c r="G24" s="10" t="n">
         <v>0</v>
@@ -1643,22 +1643,22 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Sofita Beige</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="F25" s="2" t="n">
-        <v>59.54</v>
+        <v>21.6</v>
       </c>
       <c r="G25" s="10" t="n">
         <v>0</v>
@@ -1689,17 +1689,17 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
@@ -1713,7 +1713,7 @@
         </is>
       </c>
       <c r="F26" s="2" t="n">
-        <v>37.21</v>
+        <v>95.03</v>
       </c>
       <c r="G26" s="10" t="n">
         <v>0</v>
@@ -1735,17 +1735,17 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="F27" s="2" t="n">
-        <v>59.54</v>
+        <v>133.74</v>
       </c>
       <c r="G27" s="10" t="n">
         <v>0</v>
@@ -1781,31 +1781,31 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F28" s="2" t="n">
-        <v>48.56</v>
+        <v>173.85</v>
       </c>
       <c r="G28" s="10" t="n">
         <v>0</v>
@@ -1827,31 +1827,31 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="n">
-        <v>135.81</v>
+        <v>128.78</v>
       </c>
       <c r="G29" s="10" t="n">
         <v>0</v>
@@ -1873,31 +1873,31 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Basketweave</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F30" s="2" t="n">
-        <v>6.51</v>
+        <v>84.06</v>
       </c>
       <c r="G30" s="10" t="n">
         <v>0</v>
@@ -1919,22 +1919,22 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Classic Mix</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Semi Polished</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
@@ -1943,7 +1943,7 @@
         </is>
       </c>
       <c r="F31" s="2" t="n">
-        <v>446.55</v>
+        <v>84.89</v>
       </c>
       <c r="G31" s="10" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed&amp;Grooved</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F32" s="2" t="n">
-        <v>100</v>
+        <v>87.37</v>
       </c>
       <c r="G32" s="10" t="n">
         <v>0</v>
@@ -2011,31 +2011,31 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Safari Gold</t>
+          <t>Classic Mina Panel</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Tumbled&amp;Splitface&amp;Varnish</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="n">
-        <v>50.22</v>
+        <v>17.64</v>
       </c>
       <c r="G33" s="10" t="n">
         <v>0</v>
@@ -2057,31 +2057,31 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>Classic Ogee 1</t>
+          <t>Noche Beige Corner</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="n">
-        <v>100</v>
+        <v>17.64</v>
       </c>
       <c r="G34" s="10" t="n">
         <v>0</v>
@@ -2103,31 +2103,31 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>Safari Silver</t>
+          <t>Gold Beige Panel</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Tumbled&amp;Splitface&amp;Varnish</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>4,8</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="n">
-        <v>50.22</v>
+        <v>49.86</v>
       </c>
       <c r="G35" s="10" t="n">
         <v>0</v>
@@ -2149,31 +2149,31 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Ice Grey</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>150,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F36" s="2" t="n">
-        <v>34</v>
+        <v>248.92</v>
       </c>
       <c r="G36" s="10" t="n">
         <v>0</v>
@@ -2195,22 +2195,22 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Puffin Grey</t>
+          <t>Noche Beige Panel</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>40,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>90,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
@@ -2219,7 +2219,7 @@
         </is>
       </c>
       <c r="F37" s="2" t="n">
-        <v>15.12</v>
+        <v>35.28</v>
       </c>
       <c r="G37" s="10" t="n">
         <v>0</v>
@@ -2241,31 +2241,31 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Mix Koyu</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F38" s="2" t="n">
-        <v>16.32</v>
+        <v>237.33</v>
       </c>
       <c r="G38" s="10" t="n">
         <v>0</v>
@@ -2287,31 +2287,31 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Noche Panel</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
+          <t>20,3</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
           <t>40,6</t>
         </is>
       </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
           <t>2,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="n">
-        <v>48.04</v>
+        <v>35.28</v>
       </c>
       <c r="G39" s="10" t="n">
         <v>0</v>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="F40" s="2" t="n">
-        <v>36.15</v>
+        <v>81.98</v>
       </c>
       <c r="G40" s="10" t="n">
         <v>0</v>
@@ -2379,22 +2379,22 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Light</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
@@ -2403,7 +2403,7 @@
         </is>
       </c>
       <c r="F41" s="2" t="n">
-        <v>33.42</v>
+        <v>168.4</v>
       </c>
       <c r="G41" s="10" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
@@ -2435,12 +2435,12 @@
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
@@ -2449,7 +2449,7 @@
         </is>
       </c>
       <c r="F42" s="2" t="n">
-        <v>33.42</v>
+        <v>333.09</v>
       </c>
       <c r="G42" s="10" t="n">
         <v>0</v>
@@ -2471,27 +2471,31 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr"/>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
       <c r="F43" s="2" t="n">
-        <v>163.26</v>
+        <v>453.19</v>
       </c>
       <c r="G43" s="10" t="n">
         <v>0</v>
@@ -2513,31 +2517,31 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>FREE</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F44" s="2" t="n">
-        <v>35.72</v>
+        <v>21.96</v>
       </c>
       <c r="G44" s="10" t="n">
         <v>0</v>
@@ -2559,27 +2563,31 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Royal Beige</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr"/>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
       <c r="F45" s="2" t="n">
-        <v>13</v>
+        <v>22.68</v>
       </c>
       <c r="G45" s="10" t="n">
         <v>0</v>
@@ -2601,22 +2609,22 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>Tundra Grey</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
@@ -2625,7 +2633,7 @@
         </is>
       </c>
       <c r="F46" s="2" t="n">
-        <v>25</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="G46" s="10" t="n">
         <v>0</v>
@@ -2647,31 +2655,31 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
           <t>60,0</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
           <t>2,0</t>
         </is>
       </c>
       <c r="F47" s="2" t="n">
-        <v>5.76</v>
+        <v>90.18000000000001</v>
       </c>
       <c r="G47" s="10" t="n">
         <v>0</v>
@@ -2693,31 +2701,31 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
           <t>60,0</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
           <t>2,0</t>
         </is>
       </c>
       <c r="F48" s="2" t="n">
-        <v>36</v>
+        <v>21.6</v>
       </c>
       <c r="G48" s="10" t="n">
         <v>0</v>
@@ -2739,7 +2747,7 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
@@ -2749,21 +2757,21 @@
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F49" s="2" t="n">
-        <v>446.55</v>
+        <v>22.68</v>
       </c>
       <c r="G49" s="10" t="n">
         <v>0</v>
@@ -2785,31 +2793,31 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Cappuccino Light</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F50" s="2" t="n">
-        <v>89.31</v>
+        <v>126</v>
       </c>
       <c r="G50" s="10" t="n">
         <v>0</v>
@@ -2831,31 +2839,31 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F51" s="2" t="n">
-        <v>25.3</v>
+        <v>67.5</v>
       </c>
       <c r="G51" s="10" t="n">
         <v>0</v>
@@ -2877,31 +2885,31 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="F52" s="2" t="n">
-        <v>8.19</v>
+        <v>23.76</v>
       </c>
       <c r="G52" s="10" t="n">
         <v>0</v>
@@ -2923,7 +2931,7 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
@@ -2933,21 +2941,21 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F53" s="2" t="n">
-        <v>198</v>
+        <v>14.04</v>
       </c>
       <c r="G53" s="10" t="n">
         <v>0</v>
@@ -2969,31 +2977,31 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mix</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>7,50</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F54" s="2" t="n">
-        <v>69.75</v>
+        <v>26.42</v>
       </c>
       <c r="G54" s="10" t="n">
         <v>0</v>
@@ -3015,22 +3023,22 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
@@ -3039,7 +3047,7 @@
         </is>
       </c>
       <c r="F55" s="2" t="n">
-        <v>586.59</v>
+        <v>117.21</v>
       </c>
       <c r="G55" s="10" t="n">
         <v>0</v>
@@ -3061,22 +3069,22 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Silver Rustic Vein Cut</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
@@ -3085,7 +3093,7 @@
         </is>
       </c>
       <c r="F56" s="2" t="n">
-        <v>223.04</v>
+        <v>195.35</v>
       </c>
       <c r="G56" s="10" t="n">
         <v>0</v>
@@ -3107,22 +3115,22 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza  Mosaic 225</t>
+          <t>Silver Dark Vein Cut</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>basketwiev</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>basket</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
@@ -3131,7 +3139,7 @@
         </is>
       </c>
       <c r="F57" s="2" t="n">
-        <v>10.23</v>
+        <v>39.07</v>
       </c>
       <c r="G57" s="10" t="n">
         <v>0</v>
@@ -3153,31 +3161,31 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Yellow Vein Cut</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F58" s="2" t="n">
-        <v>88</v>
+        <v>23.44</v>
       </c>
       <c r="G58" s="10" t="n">
         <v>0</v>
@@ -3199,31 +3207,31 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Blanco Esi</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F59" s="2" t="n">
-        <v>136.8</v>
+        <v>78.14</v>
       </c>
       <c r="G59" s="10" t="n">
         <v>0</v>
@@ -3245,31 +3253,31 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>Elkay Maximax</t>
+          <t>Noche Rustic Vein Cut</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>VH44</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F60" s="2" t="n">
-        <v>1</v>
+        <v>39.07</v>
       </c>
       <c r="G60" s="10" t="n">
         <v>0</v>
@@ -3291,22 +3299,22 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Solto Dark White</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Herringbone&amp;Polished&amp;Mesh</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
@@ -3315,7 +3323,7 @@
         </is>
       </c>
       <c r="F61" s="2" t="n">
-        <v>349.25</v>
+        <v>234.42</v>
       </c>
       <c r="G61" s="10" t="n">
         <v>0</v>
@@ -3337,31 +3345,31 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F62" s="2" t="n">
-        <v>1</v>
+        <v>25.26</v>
       </c>
       <c r="G62" s="10" t="n">
         <v>0</v>
@@ -3383,31 +3391,31 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="F63" s="2" t="n">
-        <v>0</v>
+        <v>15.07</v>
       </c>
       <c r="G63" s="10" t="n">
         <v>0</v>
@@ -3429,31 +3437,31 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>VAR</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F64" s="2" t="n">
-        <v>0</v>
+        <v>156.28</v>
       </c>
       <c r="G64" s="10" t="n">
         <v>0</v>
@@ -3473,13 +3481,37 @@
       <c r="T64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n"/>
-      <c r="B65" s="3" t="n"/>
-      <c r="C65" s="3" t="n"/>
-      <c r="D65" s="3" t="n"/>
-      <c r="E65" s="2" t="n"/>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="10" t="n"/>
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Volcano Vein Cut</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="G65" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H65" s="11" t="n"/>
       <c r="I65" s="5" t="n"/>
       <c r="J65" s="2" t="n"/>
@@ -3495,13 +3527,37 @@
       <c r="T65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n"/>
-      <c r="B66" s="3" t="n"/>
-      <c r="C66" s="3" t="n"/>
-      <c r="D66" s="3" t="n"/>
-      <c r="E66" s="2" t="n"/>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="10" t="n"/>
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F66" s="2" t="n">
+        <v>35.54</v>
+      </c>
+      <c r="G66" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H66" s="11" t="n"/>
       <c r="I66" s="5" t="n"/>
       <c r="J66" s="2" t="n"/>
@@ -3517,13 +3573,37 @@
       <c r="T66" s="7" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n"/>
-      <c r="B67" s="3" t="n"/>
-      <c r="C67" s="3" t="n"/>
-      <c r="D67" s="3" t="n"/>
-      <c r="E67" s="2" t="n"/>
-      <c r="F67" s="2" t="n"/>
-      <c r="G67" s="10" t="n"/>
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>77.02</v>
+      </c>
+      <c r="G67" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H67" s="11" t="n"/>
       <c r="I67" s="5" t="n"/>
       <c r="J67" s="2" t="n"/>
@@ -3539,13 +3619,37 @@
       <c r="T67" s="7" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n"/>
-      <c r="B68" s="3" t="n"/>
-      <c r="C68" s="3" t="n"/>
-      <c r="D68" s="3" t="n"/>
-      <c r="E68" s="2" t="n"/>
-      <c r="F68" s="2" t="n"/>
-      <c r="G68" s="10" t="n"/>
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>Golden Ink Vein Cut</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="G68" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H68" s="11" t="n"/>
       <c r="I68" s="5" t="n"/>
       <c r="J68" s="2" t="n"/>
@@ -3561,13 +3665,37 @@
       <c r="T68" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n"/>
-      <c r="B69" s="3" t="n"/>
-      <c r="C69" s="3" t="n"/>
-      <c r="D69" s="3" t="n"/>
-      <c r="E69" s="2" t="n"/>
-      <c r="F69" s="2" t="n"/>
-      <c r="G69" s="10" t="n"/>
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>Noche Vein Cut</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="G69" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H69" s="11" t="n"/>
       <c r="I69" s="5" t="n"/>
       <c r="J69" s="2" t="n"/>
@@ -3583,13 +3711,37 @@
       <c r="T69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n"/>
-      <c r="B70" s="3" t="n"/>
-      <c r="C70" s="3" t="n"/>
-      <c r="D70" s="3" t="n"/>
-      <c r="E70" s="2" t="n"/>
-      <c r="F70" s="2" t="n"/>
-      <c r="G70" s="10" t="n"/>
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>Walnut Vein Cut</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>156.28</v>
+      </c>
+      <c r="G70" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H70" s="11" t="n"/>
       <c r="I70" s="5" t="n"/>
       <c r="J70" s="2" t="n"/>
@@ -3605,13 +3757,37 @@
       <c r="T70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n"/>
-      <c r="B71" s="3" t="n"/>
-      <c r="C71" s="3" t="n"/>
-      <c r="D71" s="3" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
-      <c r="G71" s="10" t="n"/>
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="G71" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H71" s="11" t="n"/>
       <c r="I71" s="5" t="n"/>
       <c r="J71" s="2" t="n"/>
@@ -3627,13 +3803,37 @@
       <c r="T71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n"/>
-      <c r="B72" s="3" t="n"/>
-      <c r="C72" s="3" t="n"/>
-      <c r="D72" s="3" t="n"/>
-      <c r="E72" s="2" t="n"/>
-      <c r="F72" s="2" t="n"/>
-      <c r="G72" s="10" t="n"/>
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Silver Rustic Vein Cut</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G72" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H72" s="11" t="n"/>
       <c r="I72" s="5" t="n"/>
       <c r="J72" s="2" t="n"/>
@@ -3649,13 +3849,37 @@
       <c r="T72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n"/>
-      <c r="B73" s="3" t="n"/>
-      <c r="C73" s="3" t="n"/>
-      <c r="D73" s="3" t="n"/>
-      <c r="E73" s="2" t="n"/>
-      <c r="F73" s="2" t="n"/>
-      <c r="G73" s="10" t="n"/>
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>117.21</v>
+      </c>
+      <c r="G73" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H73" s="11" t="n"/>
       <c r="I73" s="5" t="n"/>
       <c r="J73" s="2" t="n"/>
@@ -3671,13 +3895,37 @@
       <c r="T73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n"/>
-      <c r="B74" s="3" t="n"/>
-      <c r="C74" s="3" t="n"/>
-      <c r="D74" s="3" t="n"/>
-      <c r="E74" s="2" t="n"/>
-      <c r="F74" s="2" t="n"/>
-      <c r="G74" s="10" t="n"/>
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B74" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>3038.16</v>
+      </c>
+      <c r="G74" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H74" s="11" t="n"/>
       <c r="I74" s="5" t="n"/>
       <c r="J74" s="2" t="n"/>
@@ -3693,13 +3941,37 @@
       <c r="T74" s="7" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n"/>
-      <c r="B75" s="3" t="n"/>
-      <c r="C75" s="3" t="n"/>
-      <c r="D75" s="3" t="n"/>
-      <c r="E75" s="2" t="n"/>
-      <c r="F75" s="2" t="n"/>
-      <c r="G75" s="10" t="n"/>
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G75" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H75" s="11" t="n"/>
       <c r="I75" s="5" t="n"/>
       <c r="J75" s="2" t="n"/>
@@ -3715,13 +3987,37 @@
       <c r="T75" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n"/>
-      <c r="B76" s="3" t="n"/>
-      <c r="C76" s="3" t="n"/>
-      <c r="D76" s="3" t="n"/>
-      <c r="E76" s="2" t="n"/>
-      <c r="F76" s="2" t="n"/>
-      <c r="G76" s="10" t="n"/>
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>Yellow Vein Cut</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G76" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H76" s="11" t="n"/>
       <c r="I76" s="5" t="n"/>
       <c r="J76" s="2" t="n"/>
@@ -3737,13 +4033,37 @@
       <c r="T76" s="7" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n"/>
-      <c r="B77" s="3" t="n"/>
-      <c r="C77" s="3" t="n"/>
-      <c r="D77" s="3" t="n"/>
-      <c r="E77" s="2" t="n"/>
-      <c r="F77" s="2" t="n"/>
-      <c r="G77" s="10" t="n"/>
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F77" s="2" t="n">
+        <v>298.28</v>
+      </c>
+      <c r="G77" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H77" s="11" t="n"/>
       <c r="I77" s="5" t="n"/>
       <c r="J77" s="2" t="n"/>
@@ -3759,13 +4079,37 @@
       <c r="T77" s="7" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n"/>
-      <c r="B78" s="3" t="n"/>
-      <c r="C78" s="3" t="n"/>
-      <c r="D78" s="3" t="n"/>
-      <c r="E78" s="2" t="n"/>
-      <c r="F78" s="2" t="n"/>
-      <c r="G78" s="10" t="n"/>
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>78.14</v>
+      </c>
+      <c r="G78" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H78" s="11" t="n"/>
       <c r="I78" s="5" t="n"/>
       <c r="J78" s="2" t="n"/>
@@ -3781,13 +4125,37 @@
       <c r="T78" s="7" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n"/>
-      <c r="B79" s="3" t="n"/>
-      <c r="C79" s="3" t="n"/>
-      <c r="D79" s="3" t="n"/>
-      <c r="E79" s="2" t="n"/>
-      <c r="F79" s="2" t="n"/>
-      <c r="G79" s="10" t="n"/>
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G79" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H79" s="11" t="n"/>
       <c r="I79" s="5" t="n"/>
       <c r="J79" s="2" t="n"/>
@@ -3803,13 +4171,37 @@
       <c r="T79" s="7" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n"/>
-      <c r="B80" s="3" t="n"/>
-      <c r="C80" s="3" t="n"/>
-      <c r="D80" s="3" t="n"/>
-      <c r="E80" s="2" t="n"/>
-      <c r="F80" s="2" t="n"/>
-      <c r="G80" s="10" t="n"/>
+      <c r="A80" s="3" t="inlineStr">
+        <is>
+          <t>Volcano Vein Cut</t>
+        </is>
+      </c>
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>217.85</v>
+      </c>
+      <c r="G80" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H80" s="11" t="n"/>
       <c r="I80" s="5" t="n"/>
       <c r="J80" s="2" t="n"/>
@@ -3825,13 +4217,37 @@
       <c r="T80" s="7" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n"/>
-      <c r="B81" s="3" t="n"/>
-      <c r="C81" s="3" t="n"/>
-      <c r="D81" s="3" t="n"/>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="10" t="n"/>
+      <c r="A81" s="3" t="inlineStr">
+        <is>
+          <t>Silver Vein Cut</t>
+        </is>
+      </c>
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G81" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H81" s="11" t="n"/>
       <c r="I81" s="5" t="n"/>
       <c r="J81" s="2" t="n"/>
@@ -3847,13 +4263,37 @@
       <c r="T81" s="7" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n"/>
-      <c r="B82" s="3" t="n"/>
-      <c r="C82" s="3" t="n"/>
-      <c r="D82" s="3" t="n"/>
-      <c r="E82" s="2" t="n"/>
-      <c r="F82" s="2" t="n"/>
-      <c r="G82" s="10" t="n"/>
+      <c r="A82" s="3" t="inlineStr">
+        <is>
+          <t>Storm Noche</t>
+        </is>
+      </c>
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="G82" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H82" s="11" t="n"/>
       <c r="I82" s="5" t="n"/>
       <c r="J82" s="2" t="n"/>
@@ -3869,13 +4309,37 @@
       <c r="T82" s="7" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n"/>
-      <c r="B83" s="3" t="n"/>
-      <c r="C83" s="3" t="n"/>
-      <c r="D83" s="3" t="n"/>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="10" t="n"/>
+      <c r="A83" s="3" t="inlineStr">
+        <is>
+          <t>Noche Vein Cut</t>
+        </is>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>78.14</v>
+      </c>
+      <c r="G83" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H83" s="11" t="n"/>
       <c r="I83" s="5" t="n"/>
       <c r="J83" s="2" t="n"/>
@@ -3891,13 +4355,37 @@
       <c r="T83" s="7" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n"/>
-      <c r="B84" s="3" t="n"/>
-      <c r="C84" s="3" t="n"/>
-      <c r="D84" s="3" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="10" t="n"/>
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>1618.61</v>
+      </c>
+      <c r="G84" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H84" s="11" t="n"/>
       <c r="I84" s="5" t="n"/>
       <c r="J84" s="2" t="n"/>
@@ -3913,13 +4401,37 @@
       <c r="T84" s="7" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n"/>
-      <c r="B85" s="3" t="n"/>
-      <c r="C85" s="3" t="n"/>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="2" t="n"/>
-      <c r="F85" s="2" t="n"/>
-      <c r="G85" s="10" t="n"/>
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G85" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H85" s="11" t="n"/>
       <c r="I85" s="5" t="n"/>
       <c r="J85" s="2" t="n"/>
@@ -3935,13 +4447,37 @@
       <c r="T85" s="7" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n"/>
-      <c r="B86" s="3" t="n"/>
-      <c r="C86" s="3" t="n"/>
-      <c r="D86" s="3" t="n"/>
-      <c r="E86" s="2" t="n"/>
-      <c r="F86" s="2" t="n"/>
-      <c r="G86" s="10" t="n"/>
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>Ivory Rustic</t>
+        </is>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>733.03</v>
+      </c>
+      <c r="G86" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H86" s="11" t="n"/>
       <c r="I86" s="5" t="n"/>
       <c r="J86" s="2" t="n"/>
@@ -3957,13 +4493,37 @@
       <c r="T86" s="7" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n"/>
-      <c r="B87" s="3" t="n"/>
-      <c r="C87" s="3" t="n"/>
-      <c r="D87" s="3" t="n"/>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="10" t="n"/>
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G87" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H87" s="11" t="n"/>
       <c r="I87" s="5" t="n"/>
       <c r="J87" s="2" t="n"/>
@@ -3979,13 +4539,37 @@
       <c r="T87" s="7" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n"/>
-      <c r="B88" s="3" t="n"/>
-      <c r="C88" s="3" t="n"/>
-      <c r="D88" s="3" t="n"/>
-      <c r="E88" s="2" t="n"/>
-      <c r="F88" s="2" t="n"/>
-      <c r="G88" s="10" t="n"/>
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B88" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>1054.89</v>
+      </c>
+      <c r="G88" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H88" s="11" t="n"/>
       <c r="I88" s="5" t="n"/>
       <c r="J88" s="2" t="n"/>
@@ -4001,13 +4585,37 @@
       <c r="T88" s="7" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n"/>
-      <c r="B89" s="3" t="n"/>
-      <c r="C89" s="3" t="n"/>
-      <c r="D89" s="3" t="n"/>
-      <c r="E89" s="2" t="n"/>
-      <c r="F89" s="2" t="n"/>
-      <c r="G89" s="10" t="n"/>
+      <c r="A89" s="3" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>39.07</v>
+      </c>
+      <c r="G89" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H89" s="11" t="n"/>
       <c r="I89" s="5" t="n"/>
       <c r="J89" s="2" t="n"/>
@@ -4023,13 +4631,37 @@
       <c r="T89" s="7" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n"/>
-      <c r="B90" s="3" t="n"/>
-      <c r="C90" s="3" t="n"/>
-      <c r="D90" s="3" t="n"/>
-      <c r="E90" s="2" t="n"/>
-      <c r="F90" s="2" t="n"/>
-      <c r="G90" s="10" t="n"/>
+      <c r="A90" s="3" t="inlineStr">
+        <is>
+          <t>Yellow</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>140.64</v>
+      </c>
+      <c r="G90" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H90" s="11" t="n"/>
       <c r="I90" s="5" t="n"/>
       <c r="J90" s="2" t="n"/>
@@ -4045,13 +4677,37 @@
       <c r="T90" s="7" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n"/>
-      <c r="B91" s="3" t="n"/>
-      <c r="C91" s="3" t="n"/>
-      <c r="D91" s="3" t="n"/>
-      <c r="E91" s="2" t="n"/>
-      <c r="F91" s="2" t="n"/>
-      <c r="G91" s="10" t="n"/>
+      <c r="A91" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>151.23</v>
+      </c>
+      <c r="G91" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H91" s="11" t="n"/>
       <c r="I91" s="5" t="n"/>
       <c r="J91" s="2" t="n"/>
@@ -4067,13 +4723,37 @@
       <c r="T91" s="7" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n"/>
-      <c r="B92" s="3" t="n"/>
-      <c r="C92" s="3" t="n"/>
-      <c r="D92" s="3" t="n"/>
-      <c r="E92" s="2" t="n"/>
-      <c r="F92" s="2" t="n"/>
-      <c r="G92" s="10" t="n"/>
+      <c r="A92" s="3" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B92" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>29.77</v>
+      </c>
+      <c r="G92" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H92" s="11" t="n"/>
       <c r="I92" s="5" t="n"/>
       <c r="J92" s="2" t="n"/>
@@ -4089,13 +4769,37 @@
       <c r="T92" s="7" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n"/>
-      <c r="B93" s="3" t="n"/>
-      <c r="C93" s="3" t="n"/>
-      <c r="D93" s="3" t="n"/>
-      <c r="E93" s="2" t="n"/>
-      <c r="F93" s="2" t="n"/>
-      <c r="G93" s="10" t="n"/>
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>Ela</t>
+        </is>
+      </c>
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="G93" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H93" s="11" t="n"/>
       <c r="I93" s="5" t="n"/>
       <c r="J93" s="2" t="n"/>
@@ -4111,13 +4815,37 @@
       <c r="T93" s="7" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n"/>
-      <c r="B94" s="3" t="n"/>
-      <c r="C94" s="3" t="n"/>
-      <c r="D94" s="3" t="n"/>
-      <c r="E94" s="2" t="n"/>
-      <c r="F94" s="2" t="n"/>
-      <c r="G94" s="10" t="n"/>
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>Gold Classic</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>Honed</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>31,0</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>54.07</v>
+      </c>
+      <c r="G94" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H94" s="11" t="n"/>
       <c r="I94" s="5" t="n"/>
       <c r="J94" s="2" t="n"/>
@@ -4133,13 +4861,37 @@
       <c r="T94" s="7" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n"/>
-      <c r="B95" s="3" t="n"/>
-      <c r="C95" s="3" t="n"/>
-      <c r="D95" s="3" t="n"/>
-      <c r="E95" s="2" t="n"/>
-      <c r="F95" s="2" t="n"/>
-      <c r="G95" s="10" t="n"/>
+      <c r="A95" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>34,0</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>34.55</v>
+      </c>
+      <c r="G95" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H95" s="11" t="n"/>
       <c r="I95" s="5" t="n"/>
       <c r="J95" s="2" t="n"/>
@@ -4155,13 +4907,37 @@
       <c r="T95" s="7" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n"/>
-      <c r="B96" s="3" t="n"/>
-      <c r="C96" s="3" t="n"/>
-      <c r="D96" s="3" t="n"/>
-      <c r="E96" s="2" t="n"/>
-      <c r="F96" s="2" t="n"/>
-      <c r="G96" s="10" t="n"/>
+      <c r="A96" s="3" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
+        <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="G96" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H96" s="11" t="n"/>
       <c r="I96" s="5" t="n"/>
       <c r="J96" s="2" t="n"/>
@@ -4177,13 +4953,37 @@
       <c r="T96" s="7" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n"/>
-      <c r="B97" s="3" t="n"/>
-      <c r="C97" s="3" t="n"/>
-      <c r="D97" s="3" t="n"/>
-      <c r="E97" s="2" t="n"/>
-      <c r="F97" s="2" t="n"/>
-      <c r="G97" s="10" t="n"/>
+      <c r="A97" s="3" t="inlineStr">
+        <is>
+          <t>Ivory</t>
+        </is>
+      </c>
+      <c r="B97" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C97" s="3" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="D97" s="3" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>15.35</v>
+      </c>
+      <c r="G97" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H97" s="11" t="n"/>
       <c r="I97" s="5" t="n"/>
       <c r="J97" s="2" t="n"/>
@@ -4199,13 +4999,37 @@
       <c r="T97" s="7" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n"/>
-      <c r="B98" s="3" t="n"/>
-      <c r="C98" s="3" t="n"/>
-      <c r="D98" s="3" t="n"/>
-      <c r="E98" s="2" t="n"/>
-      <c r="F98" s="2" t="n"/>
-      <c r="G98" s="10" t="n"/>
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>Bianco Ibiza White</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="G98" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H98" s="11" t="n"/>
       <c r="I98" s="5" t="n"/>
       <c r="J98" s="2" t="n"/>
@@ -4221,13 +5045,37 @@
       <c r="T98" s="7" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n"/>
-      <c r="B99" s="3" t="n"/>
-      <c r="C99" s="3" t="n"/>
-      <c r="D99" s="3" t="n"/>
-      <c r="E99" s="2" t="n"/>
-      <c r="F99" s="2" t="n"/>
-      <c r="G99" s="10" t="n"/>
+      <c r="A99" s="3" t="inlineStr">
+        <is>
+          <t>Noche Vein Cut</t>
+        </is>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>100,0</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="G99" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H99" s="11" t="n"/>
       <c r="I99" s="5" t="n"/>
       <c r="J99" s="2" t="n"/>
@@ -4243,13 +5091,37 @@
       <c r="T99" s="7" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n"/>
-      <c r="B100" s="3" t="n"/>
-      <c r="C100" s="3" t="n"/>
-      <c r="D100" s="3" t="n"/>
-      <c r="E100" s="2" t="n"/>
-      <c r="F100" s="2" t="n"/>
-      <c r="G100" s="10" t="n"/>
+      <c r="A100" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="G100" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H100" s="11" t="n"/>
       <c r="I100" s="5" t="n"/>
       <c r="J100" s="2" t="n"/>
@@ -4265,13 +5137,37 @@
       <c r="T100" s="7" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n"/>
-      <c r="B101" s="3" t="n"/>
-      <c r="C101" s="3" t="n"/>
-      <c r="D101" s="3" t="n"/>
-      <c r="E101" s="2" t="n"/>
-      <c r="F101" s="2" t="n"/>
-      <c r="G101" s="10" t="n"/>
+      <c r="A101" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>80,0</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>32.32</v>
+      </c>
+      <c r="G101" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H101" s="11" t="n"/>
       <c r="I101" s="5" t="n"/>
       <c r="J101" s="2" t="n"/>
@@ -4287,13 +5183,37 @@
       <c r="T101" s="7" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n"/>
-      <c r="B102" s="3" t="n"/>
-      <c r="C102" s="3" t="n"/>
-      <c r="D102" s="3" t="n"/>
-      <c r="E102" s="2" t="n"/>
-      <c r="F102" s="2" t="n"/>
-      <c r="G102" s="10" t="n"/>
+      <c r="A102" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>80,0</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G102" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H102" s="11" t="n"/>
       <c r="I102" s="5" t="n"/>
       <c r="J102" s="2" t="n"/>
@@ -4309,13 +5229,37 @@
       <c r="T102" s="7" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n"/>
-      <c r="B103" s="3" t="n"/>
-      <c r="C103" s="3" t="n"/>
-      <c r="D103" s="3" t="n"/>
-      <c r="E103" s="2" t="n"/>
-      <c r="F103" s="2" t="n"/>
-      <c r="G103" s="10" t="n"/>
+      <c r="A103" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="G103" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H103" s="11" t="n"/>
       <c r="I103" s="5" t="n"/>
       <c r="J103" s="2" t="n"/>
@@ -4331,13 +5275,37 @@
       <c r="T103" s="7" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n"/>
-      <c r="B104" s="3" t="n"/>
-      <c r="C104" s="3" t="n"/>
-      <c r="D104" s="3" t="n"/>
-      <c r="E104" s="2" t="n"/>
-      <c r="F104" s="2" t="n"/>
-      <c r="G104" s="10" t="n"/>
+      <c r="A104" s="3" t="inlineStr">
+        <is>
+          <t>Walnut Vein Cut</t>
+        </is>
+      </c>
+      <c r="B104" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>80,0</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="G104" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H104" s="11" t="n"/>
       <c r="I104" s="5" t="n"/>
       <c r="J104" s="2" t="n"/>
@@ -4353,13 +5321,37 @@
       <c r="T104" s="7" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n"/>
-      <c r="B105" s="3" t="n"/>
-      <c r="C105" s="3" t="n"/>
-      <c r="D105" s="3" t="n"/>
-      <c r="E105" s="2" t="n"/>
-      <c r="F105" s="2" t="n"/>
-      <c r="G105" s="10" t="n"/>
+      <c r="A105" s="3" t="inlineStr">
+        <is>
+          <t>Silver Vein Cut</t>
+        </is>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>40,0</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>80,0</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="G105" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H105" s="11" t="n"/>
       <c r="I105" s="5" t="n"/>
       <c r="J105" s="2" t="n"/>
@@ -4375,13 +5367,37 @@
       <c r="T105" s="7" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n"/>
-      <c r="B106" s="3" t="n"/>
-      <c r="C106" s="3" t="n"/>
-      <c r="D106" s="3" t="n"/>
-      <c r="E106" s="2" t="n"/>
-      <c r="F106" s="2" t="n"/>
-      <c r="G106" s="10" t="n"/>
+      <c r="A106" s="3" t="inlineStr">
+        <is>
+          <t>Storm Noche Vein Cut</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="G106" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H106" s="11" t="n"/>
       <c r="I106" s="5" t="n"/>
       <c r="J106" s="2" t="n"/>
@@ -4397,13 +5413,37 @@
       <c r="T106" s="7" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n"/>
-      <c r="B107" s="3" t="n"/>
-      <c r="C107" s="3" t="n"/>
-      <c r="D107" s="3" t="n"/>
-      <c r="E107" s="2" t="n"/>
-      <c r="F107" s="2" t="n"/>
-      <c r="G107" s="10" t="n"/>
+      <c r="A107" s="3" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="G107" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H107" s="11" t="n"/>
       <c r="I107" s="5" t="n"/>
       <c r="J107" s="2" t="n"/>
@@ -4419,13 +5459,37 @@
       <c r="T107" s="7" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n"/>
-      <c r="B108" s="3" t="n"/>
-      <c r="C108" s="3" t="n"/>
-      <c r="D108" s="3" t="n"/>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="10" t="n"/>
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>Golden Ink Vein Cut</t>
+        </is>
+      </c>
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="G108" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H108" s="11" t="n"/>
       <c r="I108" s="5" t="n"/>
       <c r="J108" s="2" t="n"/>
@@ -4441,13 +5505,37 @@
       <c r="T108" s="7" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n"/>
-      <c r="B109" s="3" t="n"/>
-      <c r="C109" s="3" t="n"/>
-      <c r="D109" s="3" t="n"/>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="10" t="n"/>
+      <c r="A109" s="3" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="G109" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H109" s="11" t="n"/>
       <c r="I109" s="5" t="n"/>
       <c r="J109" s="2" t="n"/>
@@ -4463,13 +5551,37 @@
       <c r="T109" s="7" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n"/>
-      <c r="B110" s="3" t="n"/>
-      <c r="C110" s="3" t="n"/>
-      <c r="D110" s="3" t="n"/>
-      <c r="E110" s="2" t="n"/>
-      <c r="F110" s="2" t="n"/>
-      <c r="G110" s="10" t="n"/>
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="G110" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H110" s="11" t="n"/>
       <c r="I110" s="5" t="n"/>
       <c r="J110" s="2" t="n"/>
@@ -4485,13 +5597,37 @@
       <c r="T110" s="7" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n"/>
-      <c r="B111" s="3" t="n"/>
-      <c r="C111" s="3" t="n"/>
-      <c r="D111" s="3" t="n"/>
-      <c r="E111" s="2" t="n"/>
-      <c r="F111" s="2" t="n"/>
-      <c r="G111" s="10" t="n"/>
+      <c r="A111" s="3" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="G111" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H111" s="11" t="n"/>
       <c r="I111" s="5" t="n"/>
       <c r="J111" s="2" t="n"/>
@@ -4507,13 +5643,37 @@
       <c r="T111" s="7" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n"/>
-      <c r="B112" s="3" t="n"/>
-      <c r="C112" s="3" t="n"/>
-      <c r="D112" s="3" t="n"/>
-      <c r="E112" s="2" t="n"/>
-      <c r="F112" s="2" t="n"/>
-      <c r="G112" s="10" t="n"/>
+      <c r="A112" s="3" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="G112" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H112" s="11" t="n"/>
       <c r="I112" s="5" t="n"/>
       <c r="J112" s="2" t="n"/>
@@ -4529,13 +5689,37 @@
       <c r="T112" s="7" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n"/>
-      <c r="B113" s="3" t="n"/>
-      <c r="C113" s="3" t="n"/>
-      <c r="D113" s="3" t="n"/>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="10" t="n"/>
+      <c r="A113" s="3" t="inlineStr">
+        <is>
+          <t>Classic Cream</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Bullnosed</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>40.26</v>
+      </c>
+      <c r="G113" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H113" s="11" t="n"/>
       <c r="I113" s="5" t="n"/>
       <c r="J113" s="2" t="n"/>
@@ -4551,13 +5735,37 @@
       <c r="T113" s="7" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n"/>
-      <c r="B114" s="3" t="n"/>
-      <c r="C114" s="3" t="n"/>
-      <c r="D114" s="3" t="n"/>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="10" t="n"/>
+      <c r="A114" s="3" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="G114" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H114" s="11" t="n"/>
       <c r="I114" s="5" t="n"/>
       <c r="J114" s="2" t="n"/>
@@ -4573,13 +5781,37 @@
       <c r="T114" s="7" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n"/>
-      <c r="B115" s="3" t="n"/>
-      <c r="C115" s="3" t="n"/>
-      <c r="D115" s="3" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="10" t="n"/>
+      <c r="A115" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="G115" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H115" s="11" t="n"/>
       <c r="I115" s="5" t="n"/>
       <c r="J115" s="2" t="n"/>
@@ -4595,13 +5827,37 @@
       <c r="T115" s="7" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n"/>
-      <c r="B116" s="3" t="n"/>
-      <c r="C116" s="3" t="n"/>
-      <c r="D116" s="3" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="10" t="n"/>
+      <c r="A116" s="3" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>593.87</v>
+      </c>
+      <c r="G116" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H116" s="11" t="n"/>
       <c r="I116" s="5" t="n"/>
       <c r="J116" s="2" t="n"/>
@@ -4617,13 +5873,37 @@
       <c r="T116" s="7" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n"/>
-      <c r="B117" s="3" t="n"/>
-      <c r="C117" s="3" t="n"/>
-      <c r="D117" s="3" t="n"/>
-      <c r="E117" s="2" t="n"/>
-      <c r="F117" s="2" t="n"/>
-      <c r="G117" s="10" t="n"/>
+      <c r="A117" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>24.77</v>
+      </c>
+      <c r="G117" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H117" s="11" t="n"/>
       <c r="I117" s="5" t="n"/>
       <c r="J117" s="2" t="n"/>
@@ -4639,13 +5919,37 @@
       <c r="T117" s="7" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n"/>
-      <c r="B118" s="3" t="n"/>
-      <c r="C118" s="3" t="n"/>
-      <c r="D118" s="3" t="n"/>
-      <c r="E118" s="2" t="n"/>
-      <c r="F118" s="2" t="n"/>
-      <c r="G118" s="10" t="n"/>
+      <c r="A118" s="3" t="inlineStr">
+        <is>
+          <t>Pablo Vein Cut</t>
+        </is>
+      </c>
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed&amp;Bullnosed</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>16.09</v>
+      </c>
+      <c r="G118" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H118" s="11" t="n"/>
       <c r="I118" s="5" t="n"/>
       <c r="J118" s="2" t="n"/>
@@ -4661,13 +5965,37 @@
       <c r="T118" s="7" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n"/>
-      <c r="B119" s="3" t="n"/>
-      <c r="C119" s="3" t="n"/>
-      <c r="D119" s="3" t="n"/>
-      <c r="E119" s="2" t="n"/>
-      <c r="F119" s="2" t="n"/>
-      <c r="G119" s="10" t="n"/>
+      <c r="A119" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>15.85</v>
+      </c>
+      <c r="G119" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H119" s="11" t="n"/>
       <c r="I119" s="5" t="n"/>
       <c r="J119" s="2" t="n"/>
@@ -4683,13 +6011,37 @@
       <c r="T119" s="7" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="n"/>
-      <c r="B120" s="3" t="n"/>
-      <c r="C120" s="3" t="n"/>
-      <c r="D120" s="3" t="n"/>
-      <c r="E120" s="2" t="n"/>
-      <c r="F120" s="2" t="n"/>
-      <c r="G120" s="10" t="n"/>
+      <c r="A120" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="G120" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H120" s="11" t="n"/>
       <c r="I120" s="5" t="n"/>
       <c r="J120" s="2" t="n"/>
@@ -4705,13 +6057,37 @@
       <c r="T120" s="7" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="n"/>
-      <c r="B121" s="3" t="n"/>
-      <c r="C121" s="3" t="n"/>
-      <c r="D121" s="3" t="n"/>
-      <c r="E121" s="2" t="n"/>
-      <c r="F121" s="2" t="n"/>
-      <c r="G121" s="10" t="n"/>
+      <c r="A121" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="G121" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H121" s="11" t="n"/>
       <c r="I121" s="5" t="n"/>
       <c r="J121" s="2" t="n"/>
@@ -4727,13 +6103,37 @@
       <c r="T121" s="7" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="n"/>
-      <c r="B122" s="3" t="n"/>
-      <c r="C122" s="3" t="n"/>
-      <c r="D122" s="3" t="n"/>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="10" t="n"/>
+      <c r="A122" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>56.04</v>
+      </c>
+      <c r="G122" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H122" s="11" t="n"/>
       <c r="I122" s="5" t="n"/>
       <c r="J122" s="2" t="n"/>
@@ -4749,13 +6149,37 @@
       <c r="T122" s="7" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="n"/>
-      <c r="B123" s="3" t="n"/>
-      <c r="C123" s="3" t="n"/>
-      <c r="D123" s="3" t="n"/>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="10" t="n"/>
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>208.03</v>
+      </c>
+      <c r="G123" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H123" s="11" t="n"/>
       <c r="I123" s="5" t="n"/>
       <c r="J123" s="2" t="n"/>
@@ -4771,13 +6195,37 @@
       <c r="T123" s="7" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="n"/>
-      <c r="B124" s="3" t="n"/>
-      <c r="C124" s="3" t="n"/>
-      <c r="D124" s="3" t="n"/>
-      <c r="E124" s="2" t="n"/>
-      <c r="F124" s="2" t="n"/>
-      <c r="G124" s="10" t="n"/>
+      <c r="A124" s="3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="G124" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H124" s="11" t="n"/>
       <c r="I124" s="5" t="n"/>
       <c r="J124" s="2" t="n"/>
@@ -4793,13 +6241,37 @@
       <c r="T124" s="7" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="n"/>
-      <c r="B125" s="3" t="n"/>
-      <c r="C125" s="3" t="n"/>
-      <c r="D125" s="3" t="n"/>
-      <c r="E125" s="2" t="n"/>
-      <c r="F125" s="2" t="n"/>
-      <c r="G125" s="10" t="n"/>
+      <c r="A125" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="G125" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H125" s="11" t="n"/>
       <c r="I125" s="5" t="n"/>
       <c r="J125" s="2" t="n"/>
@@ -4815,13 +6287,37 @@
       <c r="T125" s="7" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="n"/>
-      <c r="B126" s="3" t="n"/>
-      <c r="C126" s="3" t="n"/>
-      <c r="D126" s="3" t="n"/>
-      <c r="E126" s="2" t="n"/>
-      <c r="F126" s="2" t="n"/>
-      <c r="G126" s="10" t="n"/>
+      <c r="A126" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="G126" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H126" s="11" t="n"/>
       <c r="I126" s="5" t="n"/>
       <c r="J126" s="2" t="n"/>
@@ -4837,13 +6333,37 @@
       <c r="T126" s="7" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="n"/>
-      <c r="B127" s="3" t="n"/>
-      <c r="C127" s="3" t="n"/>
-      <c r="D127" s="3" t="n"/>
-      <c r="E127" s="2" t="n"/>
-      <c r="F127" s="2" t="n"/>
-      <c r="G127" s="10" t="n"/>
+      <c r="A127" s="3" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>144.72</v>
+      </c>
+      <c r="G127" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H127" s="11" t="n"/>
       <c r="I127" s="5" t="n"/>
       <c r="J127" s="2" t="n"/>
@@ -4859,13 +6379,37 @@
       <c r="T127" s="7" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="n"/>
-      <c r="B128" s="3" t="n"/>
-      <c r="C128" s="3" t="n"/>
-      <c r="D128" s="3" t="n"/>
-      <c r="E128" s="2" t="n"/>
-      <c r="F128" s="2" t="n"/>
-      <c r="G128" s="10" t="n"/>
+      <c r="A128" s="3" t="inlineStr">
+        <is>
+          <t>Pablo Cross Cut</t>
+        </is>
+      </c>
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>39.63</v>
+      </c>
+      <c r="G128" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H128" s="11" t="n"/>
       <c r="I128" s="5" t="n"/>
       <c r="J128" s="2" t="n"/>
@@ -4881,13 +6425,37 @@
       <c r="T128" s="7" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="n"/>
-      <c r="B129" s="3" t="n"/>
-      <c r="C129" s="3" t="n"/>
-      <c r="D129" s="3" t="n"/>
-      <c r="E129" s="2" t="n"/>
-      <c r="F129" s="2" t="n"/>
-      <c r="G129" s="10" t="n"/>
+      <c r="A129" s="3" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="G129" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H129" s="11" t="n"/>
       <c r="I129" s="5" t="n"/>
       <c r="J129" s="2" t="n"/>
@@ -4903,13 +6471,37 @@
       <c r="T129" s="7" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="n"/>
-      <c r="B130" s="3" t="n"/>
-      <c r="C130" s="3" t="n"/>
-      <c r="D130" s="3" t="n"/>
-      <c r="E130" s="2" t="n"/>
-      <c r="F130" s="2" t="n"/>
-      <c r="G130" s="10" t="n"/>
+      <c r="A130" s="3" t="inlineStr">
+        <is>
+          <t>Picasso Silver</t>
+        </is>
+      </c>
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>158.52</v>
+      </c>
+      <c r="G130" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H130" s="11" t="n"/>
       <c r="I130" s="5" t="n"/>
       <c r="J130" s="2" t="n"/>
@@ -4925,13 +6517,37 @@
       <c r="T130" s="7" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="n"/>
-      <c r="B131" s="3" t="n"/>
-      <c r="C131" s="3" t="n"/>
-      <c r="D131" s="3" t="n"/>
-      <c r="E131" s="2" t="n"/>
-      <c r="F131" s="2" t="n"/>
-      <c r="G131" s="10" t="n"/>
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>45,0</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="G131" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H131" s="11" t="n"/>
       <c r="I131" s="5" t="n"/>
       <c r="J131" s="2" t="n"/>
@@ -4947,13 +6563,37 @@
       <c r="T131" s="7" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="n"/>
-      <c r="B132" s="3" t="n"/>
-      <c r="C132" s="3" t="n"/>
-      <c r="D132" s="3" t="n"/>
-      <c r="E132" s="2" t="n"/>
-      <c r="F132" s="2" t="n"/>
-      <c r="G132" s="10" t="n"/>
+      <c r="A132" s="3" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="G132" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H132" s="11" t="n"/>
       <c r="I132" s="5" t="n"/>
       <c r="J132" s="2" t="n"/>
@@ -4969,13 +6609,37 @@
       <c r="T132" s="7" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="n"/>
-      <c r="B133" s="3" t="n"/>
-      <c r="C133" s="3" t="n"/>
-      <c r="D133" s="3" t="n"/>
-      <c r="E133" s="2" t="n"/>
-      <c r="F133" s="2" t="n"/>
-      <c r="G133" s="10" t="n"/>
+      <c r="A133" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="G133" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H133" s="11" t="n"/>
       <c r="I133" s="5" t="n"/>
       <c r="J133" s="2" t="n"/>
@@ -4991,13 +6655,37 @@
       <c r="T133" s="7" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="n"/>
-      <c r="B134" s="3" t="n"/>
-      <c r="C134" s="3" t="n"/>
-      <c r="D134" s="3" t="n"/>
-      <c r="E134" s="2" t="n"/>
-      <c r="F134" s="2" t="n"/>
-      <c r="G134" s="10" t="n"/>
+      <c r="A134" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="G134" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H134" s="11" t="n"/>
       <c r="I134" s="5" t="n"/>
       <c r="J134" s="2" t="n"/>
@@ -5013,13 +6701,37 @@
       <c r="T134" s="7" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="n"/>
-      <c r="B135" s="3" t="n"/>
-      <c r="C135" s="3" t="n"/>
-      <c r="D135" s="3" t="n"/>
-      <c r="E135" s="2" t="n"/>
-      <c r="F135" s="2" t="n"/>
-      <c r="G135" s="10" t="n"/>
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>Storm Noche Onyx</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>100.26</v>
+      </c>
+      <c r="G135" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H135" s="11" t="n"/>
       <c r="I135" s="5" t="n"/>
       <c r="J135" s="2" t="n"/>
@@ -5035,13 +6747,37 @@
       <c r="T135" s="7" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="n"/>
-      <c r="B136" s="3" t="n"/>
-      <c r="C136" s="3" t="n"/>
-      <c r="D136" s="3" t="n"/>
-      <c r="E136" s="2" t="n"/>
-      <c r="F136" s="2" t="n"/>
-      <c r="G136" s="10" t="n"/>
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="G136" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H136" s="11" t="n"/>
       <c r="I136" s="5" t="n"/>
       <c r="J136" s="2" t="n"/>
@@ -5057,13 +6793,37 @@
       <c r="T136" s="7" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="n"/>
-      <c r="B137" s="3" t="n"/>
-      <c r="C137" s="3" t="n"/>
-      <c r="D137" s="3" t="n"/>
-      <c r="E137" s="2" t="n"/>
-      <c r="F137" s="2" t="n"/>
-      <c r="G137" s="10" t="n"/>
+      <c r="A137" s="3" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="G137" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H137" s="11" t="n"/>
       <c r="I137" s="5" t="n"/>
       <c r="J137" s="2" t="n"/>
@@ -5079,13 +6839,37 @@
       <c r="T137" s="7" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="n"/>
-      <c r="B138" s="3" t="n"/>
-      <c r="C138" s="3" t="n"/>
-      <c r="D138" s="3" t="n"/>
-      <c r="E138" s="2" t="n"/>
-      <c r="F138" s="2" t="n"/>
-      <c r="G138" s="10" t="n"/>
+      <c r="A138" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
+        <is>
+          <t>45,7</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="G138" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H138" s="11" t="n"/>
       <c r="I138" s="5" t="n"/>
       <c r="J138" s="2" t="n"/>
@@ -5101,13 +6885,37 @@
       <c r="T138" s="7" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="n"/>
-      <c r="B139" s="3" t="n"/>
-      <c r="C139" s="3" t="n"/>
-      <c r="D139" s="3" t="n"/>
-      <c r="E139" s="2" t="n"/>
-      <c r="F139" s="2" t="n"/>
-      <c r="G139" s="10" t="n"/>
+      <c r="A139" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="G139" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H139" s="11" t="n"/>
       <c r="I139" s="5" t="n"/>
       <c r="J139" s="2" t="n"/>
@@ -5123,13 +6931,37 @@
       <c r="T139" s="7" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="n"/>
-      <c r="B140" s="3" t="n"/>
-      <c r="C140" s="3" t="n"/>
-      <c r="D140" s="3" t="n"/>
-      <c r="E140" s="2" t="n"/>
-      <c r="F140" s="2" t="n"/>
-      <c r="G140" s="10" t="n"/>
+      <c r="A140" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="G140" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H140" s="11" t="n"/>
       <c r="I140" s="5" t="n"/>
       <c r="J140" s="2" t="n"/>
@@ -5145,13 +6977,37 @@
       <c r="T140" s="7" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="n"/>
-      <c r="B141" s="3" t="n"/>
-      <c r="C141" s="3" t="n"/>
-      <c r="D141" s="3" t="n"/>
-      <c r="E141" s="2" t="n"/>
-      <c r="F141" s="2" t="n"/>
-      <c r="G141" s="10" t="n"/>
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>26.98</v>
+      </c>
+      <c r="G141" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H141" s="11" t="n"/>
       <c r="I141" s="5" t="n"/>
       <c r="J141" s="2" t="n"/>
@@ -5167,13 +7023,37 @@
       <c r="T141" s="7" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="n"/>
-      <c r="B142" s="3" t="n"/>
-      <c r="C142" s="3" t="n"/>
-      <c r="D142" s="3" t="n"/>
-      <c r="E142" s="2" t="n"/>
-      <c r="F142" s="2" t="n"/>
-      <c r="G142" s="10" t="n"/>
+      <c r="A142" s="3" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="G142" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H142" s="11" t="n"/>
       <c r="I142" s="5" t="n"/>
       <c r="J142" s="2" t="n"/>
@@ -5189,13 +7069,37 @@
       <c r="T142" s="7" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="n"/>
-      <c r="B143" s="3" t="n"/>
-      <c r="C143" s="3" t="n"/>
-      <c r="D143" s="3" t="n"/>
-      <c r="E143" s="2" t="n"/>
-      <c r="F143" s="2" t="n"/>
-      <c r="G143" s="10" t="n"/>
+      <c r="A143" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="G143" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H143" s="11" t="n"/>
       <c r="I143" s="5" t="n"/>
       <c r="J143" s="2" t="n"/>
@@ -5211,13 +7115,37 @@
       <c r="T143" s="7" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="n"/>
-      <c r="B144" s="3" t="n"/>
-      <c r="C144" s="3" t="n"/>
-      <c r="D144" s="3" t="n"/>
-      <c r="E144" s="2" t="n"/>
-      <c r="F144" s="2" t="n"/>
-      <c r="G144" s="10" t="n"/>
+      <c r="A144" s="3" t="inlineStr">
+        <is>
+          <t>Noche Vein Cut</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="G144" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H144" s="11" t="n"/>
       <c r="I144" s="5" t="n"/>
       <c r="J144" s="2" t="n"/>
@@ -5233,13 +7161,37 @@
       <c r="T144" s="7" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="n"/>
-      <c r="B145" s="3" t="n"/>
-      <c r="C145" s="3" t="n"/>
-      <c r="D145" s="3" t="n"/>
-      <c r="E145" s="2" t="n"/>
-      <c r="F145" s="2" t="n"/>
-      <c r="G145" s="10" t="n"/>
+      <c r="A145" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="G145" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H145" s="11" t="n"/>
       <c r="I145" s="5" t="n"/>
       <c r="J145" s="2" t="n"/>
@@ -5255,13 +7207,37 @@
       <c r="T145" s="7" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="n"/>
-      <c r="B146" s="3" t="n"/>
-      <c r="C146" s="3" t="n"/>
-      <c r="D146" s="3" t="n"/>
-      <c r="E146" s="2" t="n"/>
-      <c r="F146" s="2" t="n"/>
-      <c r="G146" s="10" t="n"/>
+      <c r="A146" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>324</v>
+      </c>
+      <c r="G146" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H146" s="11" t="n"/>
       <c r="I146" s="5" t="n"/>
       <c r="J146" s="2" t="n"/>
@@ -5277,13 +7253,37 @@
       <c r="T146" s="7" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="n"/>
-      <c r="B147" s="3" t="n"/>
-      <c r="C147" s="3" t="n"/>
-      <c r="D147" s="3" t="n"/>
-      <c r="E147" s="2" t="n"/>
-      <c r="F147" s="2" t="n"/>
-      <c r="G147" s="10" t="n"/>
+      <c r="A147" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>Cement Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="G147" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H147" s="11" t="n"/>
       <c r="I147" s="5" t="n"/>
       <c r="J147" s="2" t="n"/>
@@ -5299,13 +7299,37 @@
       <c r="T147" s="7" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="n"/>
-      <c r="B148" s="3" t="n"/>
-      <c r="C148" s="3" t="n"/>
-      <c r="D148" s="3" t="n"/>
-      <c r="E148" s="2" t="n"/>
-      <c r="F148" s="2" t="n"/>
-      <c r="G148" s="10" t="n"/>
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="G148" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H148" s="11" t="n"/>
       <c r="I148" s="5" t="n"/>
       <c r="J148" s="2" t="n"/>
@@ -5321,13 +7345,37 @@
       <c r="T148" s="7" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="n"/>
-      <c r="B149" s="3" t="n"/>
-      <c r="C149" s="3" t="n"/>
-      <c r="D149" s="3" t="n"/>
-      <c r="E149" s="2" t="n"/>
-      <c r="F149" s="2" t="n"/>
-      <c r="G149" s="10" t="n"/>
+      <c r="A149" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>292.32</v>
+      </c>
+      <c r="G149" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H149" s="11" t="n"/>
       <c r="I149" s="5" t="n"/>
       <c r="J149" s="2" t="n"/>
@@ -5343,13 +7391,37 @@
       <c r="T149" s="7" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="n"/>
-      <c r="B150" s="3" t="n"/>
-      <c r="C150" s="3" t="n"/>
-      <c r="D150" s="3" t="n"/>
-      <c r="E150" s="2" t="n"/>
-      <c r="F150" s="2" t="n"/>
-      <c r="G150" s="10" t="n"/>
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>595.5</v>
+      </c>
+      <c r="G150" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H150" s="11" t="n"/>
       <c r="I150" s="5" t="n"/>
       <c r="J150" s="2" t="n"/>
@@ -5365,13 +7437,37 @@
       <c r="T150" s="7" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="n"/>
-      <c r="B151" s="3" t="n"/>
-      <c r="C151" s="3" t="n"/>
-      <c r="D151" s="3" t="n"/>
-      <c r="E151" s="2" t="n"/>
-      <c r="F151" s="2" t="n"/>
-      <c r="G151" s="10" t="n"/>
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="G151" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H151" s="11" t="n"/>
       <c r="I151" s="5" t="n"/>
       <c r="J151" s="2" t="n"/>
@@ -5387,13 +7483,37 @@
       <c r="T151" s="7" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="n"/>
-      <c r="B152" s="3" t="n"/>
-      <c r="C152" s="3" t="n"/>
-      <c r="D152" s="3" t="n"/>
-      <c r="E152" s="2" t="n"/>
-      <c r="F152" s="2" t="n"/>
-      <c r="G152" s="10" t="n"/>
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t>FREE</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="G152" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H152" s="11" t="n"/>
       <c r="I152" s="5" t="n"/>
       <c r="J152" s="2" t="n"/>
@@ -5409,13 +7529,37 @@
       <c r="T152" s="7" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="n"/>
-      <c r="B153" s="3" t="n"/>
-      <c r="C153" s="3" t="n"/>
-      <c r="D153" s="3" t="n"/>
-      <c r="E153" s="2" t="n"/>
-      <c r="F153" s="2" t="n"/>
-      <c r="G153" s="10" t="n"/>
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>54.27</v>
+      </c>
+      <c r="G153" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H153" s="11" t="n"/>
       <c r="I153" s="5" t="n"/>
       <c r="J153" s="2" t="n"/>
@@ -5431,13 +7575,37 @@
       <c r="T153" s="7" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="n"/>
-      <c r="B154" s="3" t="n"/>
-      <c r="C154" s="3" t="n"/>
-      <c r="D154" s="3" t="n"/>
-      <c r="E154" s="2" t="n"/>
-      <c r="F154" s="2" t="n"/>
-      <c r="G154" s="10" t="n"/>
+      <c r="A154" s="3" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="B154" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>203.7</v>
+      </c>
+      <c r="G154" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H154" s="11" t="n"/>
       <c r="I154" s="5" t="n"/>
       <c r="J154" s="2" t="n"/>
@@ -5453,13 +7621,37 @@
       <c r="T154" s="7" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="n"/>
-      <c r="B155" s="3" t="n"/>
-      <c r="C155" s="3" t="n"/>
-      <c r="D155" s="3" t="n"/>
-      <c r="E155" s="2" t="n"/>
-      <c r="F155" s="2" t="n"/>
-      <c r="G155" s="10" t="n"/>
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>Storm Noche</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="G155" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H155" s="11" t="n"/>
       <c r="I155" s="5" t="n"/>
       <c r="J155" s="2" t="n"/>
@@ -5475,13 +7667,37 @@
       <c r="T155" s="7" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="n"/>
-      <c r="B156" s="3" t="n"/>
-      <c r="C156" s="3" t="n"/>
-      <c r="D156" s="3" t="n"/>
-      <c r="E156" s="2" t="n"/>
-      <c r="F156" s="2" t="n"/>
-      <c r="G156" s="10" t="n"/>
+      <c r="A156" s="3" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>347.94</v>
+      </c>
+      <c r="G156" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H156" s="11" t="n"/>
       <c r="I156" s="5" t="n"/>
       <c r="J156" s="2" t="n"/>
@@ -5497,13 +7713,37 @@
       <c r="T156" s="7" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="n"/>
-      <c r="B157" s="3" t="n"/>
-      <c r="C157" s="3" t="n"/>
-      <c r="D157" s="3" t="n"/>
-      <c r="E157" s="2" t="n"/>
-      <c r="F157" s="2" t="n"/>
-      <c r="G157" s="10" t="n"/>
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>25.28</v>
+      </c>
+      <c r="G157" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H157" s="11" t="n"/>
       <c r="I157" s="5" t="n"/>
       <c r="J157" s="2" t="n"/>
@@ -5519,13 +7759,37 @@
       <c r="T157" s="7" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="n"/>
-      <c r="B158" s="3" t="n"/>
-      <c r="C158" s="3" t="n"/>
-      <c r="D158" s="3" t="n"/>
-      <c r="E158" s="2" t="n"/>
-      <c r="F158" s="2" t="n"/>
-      <c r="G158" s="10" t="n"/>
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>Storm Noche</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F158" s="2" t="n">
+        <v>695.88</v>
+      </c>
+      <c r="G158" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H158" s="11" t="n"/>
       <c r="I158" s="5" t="n"/>
       <c r="J158" s="2" t="n"/>
@@ -5541,13 +7805,37 @@
       <c r="T158" s="7" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="n"/>
-      <c r="B159" s="3" t="n"/>
-      <c r="C159" s="3" t="n"/>
-      <c r="D159" s="3" t="n"/>
-      <c r="E159" s="2" t="n"/>
-      <c r="F159" s="2" t="n"/>
-      <c r="G159" s="10" t="n"/>
+      <c r="A159" s="3" t="inlineStr">
+        <is>
+          <t>Ela</t>
+        </is>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="G159" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H159" s="11" t="n"/>
       <c r="I159" s="5" t="n"/>
       <c r="J159" s="2" t="n"/>
@@ -5563,13 +7851,37 @@
       <c r="T159" s="7" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="n"/>
-      <c r="B160" s="3" t="n"/>
-      <c r="C160" s="3" t="n"/>
-      <c r="D160" s="3" t="n"/>
-      <c r="E160" s="2" t="n"/>
-      <c r="F160" s="2" t="n"/>
-      <c r="G160" s="10" t="n"/>
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>Ela</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="G160" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H160" s="11" t="n"/>
       <c r="I160" s="5" t="n"/>
       <c r="J160" s="2" t="n"/>
@@ -5585,13 +7897,37 @@
       <c r="T160" s="7" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="n"/>
-      <c r="B161" s="3" t="n"/>
-      <c r="C161" s="3" t="n"/>
-      <c r="D161" s="3" t="n"/>
-      <c r="E161" s="2" t="n"/>
-      <c r="F161" s="2" t="n"/>
-      <c r="G161" s="10" t="n"/>
+      <c r="A161" s="3" t="inlineStr">
+        <is>
+          <t>Thula Mix</t>
+        </is>
+      </c>
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="G161" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H161" s="11" t="n"/>
       <c r="I161" s="5" t="n"/>
       <c r="J161" s="2" t="n"/>
@@ -5607,13 +7943,37 @@
       <c r="T161" s="7" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="n"/>
-      <c r="B162" s="3" t="n"/>
-      <c r="C162" s="3" t="n"/>
-      <c r="D162" s="3" t="n"/>
-      <c r="E162" s="2" t="n"/>
-      <c r="F162" s="2" t="n"/>
-      <c r="G162" s="10" t="n"/>
+      <c r="A162" s="3" t="inlineStr">
+        <is>
+          <t>Ivory Rustic</t>
+        </is>
+      </c>
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="G162" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H162" s="11" t="n"/>
       <c r="I162" s="5" t="n"/>
       <c r="J162" s="2" t="n"/>
@@ -5629,13 +7989,37 @@
       <c r="T162" s="7" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="n"/>
-      <c r="B163" s="3" t="n"/>
-      <c r="C163" s="3" t="n"/>
-      <c r="D163" s="3" t="n"/>
-      <c r="E163" s="2" t="n"/>
-      <c r="F163" s="2" t="n"/>
-      <c r="G163" s="10" t="n"/>
+      <c r="A163" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>115.98</v>
+      </c>
+      <c r="G163" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H163" s="11" t="n"/>
       <c r="I163" s="5" t="n"/>
       <c r="J163" s="2" t="n"/>
@@ -5651,13 +8035,37 @@
       <c r="T163" s="7" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="n"/>
-      <c r="B164" s="3" t="n"/>
-      <c r="C164" s="3" t="n"/>
-      <c r="D164" s="3" t="n"/>
-      <c r="E164" s="2" t="n"/>
-      <c r="F164" s="2" t="n"/>
-      <c r="G164" s="10" t="n"/>
+      <c r="A164" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="G164" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H164" s="11" t="n"/>
       <c r="I164" s="5" t="n"/>
       <c r="J164" s="2" t="n"/>
@@ -5673,13 +8081,37 @@
       <c r="T164" s="7" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="n"/>
-      <c r="B165" s="3" t="n"/>
-      <c r="C165" s="3" t="n"/>
-      <c r="D165" s="3" t="n"/>
-      <c r="E165" s="2" t="n"/>
-      <c r="F165" s="2" t="n"/>
-      <c r="G165" s="10" t="n"/>
+      <c r="A165" s="3" t="inlineStr">
+        <is>
+          <t>Ivory Rustic</t>
+        </is>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>309.28</v>
+      </c>
+      <c r="G165" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H165" s="11" t="n"/>
       <c r="I165" s="5" t="n"/>
       <c r="J165" s="2" t="n"/>
@@ -5695,13 +8127,37 @@
       <c r="T165" s="7" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="n"/>
-      <c r="B166" s="3" t="n"/>
-      <c r="C166" s="3" t="n"/>
-      <c r="D166" s="3" t="n"/>
-      <c r="E166" s="2" t="n"/>
-      <c r="F166" s="2" t="n"/>
-      <c r="G166" s="10" t="n"/>
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>Scott Rustic</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="G166" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H166" s="11" t="n"/>
       <c r="I166" s="5" t="n"/>
       <c r="J166" s="2" t="n"/>
@@ -5717,13 +8173,37 @@
       <c r="T166" s="7" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="n"/>
-      <c r="B167" s="3" t="n"/>
-      <c r="C167" s="3" t="n"/>
-      <c r="D167" s="3" t="n"/>
-      <c r="E167" s="2" t="n"/>
-      <c r="F167" s="2" t="n"/>
-      <c r="G167" s="10" t="n"/>
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F167" s="2" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="G167" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H167" s="11" t="n"/>
       <c r="I167" s="5" t="n"/>
       <c r="J167" s="2" t="n"/>
@@ -5739,13 +8219,37 @@
       <c r="T167" s="7" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="n"/>
-      <c r="B168" s="3" t="n"/>
-      <c r="C168" s="3" t="n"/>
-      <c r="D168" s="3" t="n"/>
-      <c r="E168" s="2" t="n"/>
-      <c r="F168" s="2" t="n"/>
-      <c r="G168" s="10" t="n"/>
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F168" s="2" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="G168" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H168" s="11" t="n"/>
       <c r="I168" s="5" t="n"/>
       <c r="J168" s="2" t="n"/>
@@ -5761,13 +8265,37 @@
       <c r="T168" s="7" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="n"/>
-      <c r="B169" s="3" t="n"/>
-      <c r="C169" s="3" t="n"/>
-      <c r="D169" s="3" t="n"/>
-      <c r="E169" s="2" t="n"/>
-      <c r="F169" s="2" t="n"/>
-      <c r="G169" s="10" t="n"/>
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F169" s="2" t="n">
+        <v>194.78</v>
+      </c>
+      <c r="G169" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H169" s="11" t="n"/>
       <c r="I169" s="5" t="n"/>
       <c r="J169" s="2" t="n"/>
@@ -5783,13 +8311,37 @@
       <c r="T169" s="7" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="n"/>
-      <c r="B170" s="3" t="n"/>
-      <c r="C170" s="3" t="n"/>
-      <c r="D170" s="3" t="n"/>
-      <c r="E170" s="2" t="n"/>
-      <c r="F170" s="2" t="n"/>
-      <c r="G170" s="10" t="n"/>
+      <c r="A170" s="3" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F170" s="2" t="n">
+        <v>243.79</v>
+      </c>
+      <c r="G170" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H170" s="11" t="n"/>
       <c r="I170" s="5" t="n"/>
       <c r="J170" s="2" t="n"/>
@@ -5805,13 +8357,37 @@
       <c r="T170" s="7" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="n"/>
-      <c r="B171" s="3" t="n"/>
-      <c r="C171" s="3" t="n"/>
-      <c r="D171" s="3" t="n"/>
-      <c r="E171" s="2" t="n"/>
-      <c r="F171" s="2" t="n"/>
-      <c r="G171" s="10" t="n"/>
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="G171" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H171" s="11" t="n"/>
       <c r="I171" s="5" t="n"/>
       <c r="J171" s="2" t="n"/>
@@ -5827,13 +8403,37 @@
       <c r="T171" s="7" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="n"/>
-      <c r="B172" s="3" t="n"/>
-      <c r="C172" s="3" t="n"/>
-      <c r="D172" s="3" t="n"/>
-      <c r="E172" s="2" t="n"/>
-      <c r="F172" s="2" t="n"/>
-      <c r="G172" s="10" t="n"/>
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>43.12</v>
+      </c>
+      <c r="G172" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H172" s="11" t="n"/>
       <c r="I172" s="5" t="n"/>
       <c r="J172" s="2" t="n"/>
@@ -5849,13 +8449,37 @@
       <c r="T172" s="7" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="n"/>
-      <c r="B173" s="3" t="n"/>
-      <c r="C173" s="3" t="n"/>
-      <c r="D173" s="3" t="n"/>
-      <c r="E173" s="2" t="n"/>
-      <c r="F173" s="2" t="n"/>
-      <c r="G173" s="10" t="n"/>
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="G173" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H173" s="11" t="n"/>
       <c r="I173" s="5" t="n"/>
       <c r="J173" s="2" t="n"/>
@@ -5871,13 +8495,37 @@
       <c r="T173" s="7" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="n"/>
-      <c r="B174" s="3" t="n"/>
-      <c r="C174" s="3" t="n"/>
-      <c r="D174" s="3" t="n"/>
-      <c r="E174" s="2" t="n"/>
-      <c r="F174" s="2" t="n"/>
-      <c r="G174" s="10" t="n"/>
+      <c r="A174" s="3" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>193.31</v>
+      </c>
+      <c r="G174" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H174" s="11" t="n"/>
       <c r="I174" s="5" t="n"/>
       <c r="J174" s="2" t="n"/>
@@ -5893,13 +8541,37 @@
       <c r="T174" s="7" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="n"/>
-      <c r="B175" s="3" t="n"/>
-      <c r="C175" s="3" t="n"/>
-      <c r="D175" s="3" t="n"/>
-      <c r="E175" s="2" t="n"/>
-      <c r="F175" s="2" t="n"/>
-      <c r="G175" s="10" t="n"/>
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>3,0</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="G175" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H175" s="11" t="n"/>
       <c r="I175" s="5" t="n"/>
       <c r="J175" s="2" t="n"/>
@@ -5915,13 +8587,37 @@
       <c r="T175" s="7" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="n"/>
-      <c r="B176" s="3" t="n"/>
-      <c r="C176" s="3" t="n"/>
-      <c r="D176" s="3" t="n"/>
-      <c r="E176" s="2" t="n"/>
-      <c r="F176" s="2" t="n"/>
-      <c r="G176" s="10" t="n"/>
+      <c r="A176" s="3" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
+        <is>
+          <t>3,2</t>
+        </is>
+      </c>
+      <c r="F176" s="2" t="n">
+        <v>14.87</v>
+      </c>
+      <c r="G176" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H176" s="11" t="n"/>
       <c r="I176" s="5" t="n"/>
       <c r="J176" s="2" t="n"/>
@@ -5937,13 +8633,37 @@
       <c r="T176" s="7" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="n"/>
-      <c r="B177" s="3" t="n"/>
-      <c r="C177" s="3" t="n"/>
-      <c r="D177" s="3" t="n"/>
-      <c r="E177" s="2" t="n"/>
-      <c r="F177" s="2" t="n"/>
-      <c r="G177" s="10" t="n"/>
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="G177" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H177" s="11" t="n"/>
       <c r="I177" s="5" t="n"/>
       <c r="J177" s="2" t="n"/>
@@ -5959,13 +8679,37 @@
       <c r="T177" s="7" t="n"/>
     </row>
     <row r="178">
-      <c r="A178" s="3" t="n"/>
-      <c r="B178" s="3" t="n"/>
-      <c r="C178" s="3" t="n"/>
-      <c r="D178" s="3" t="n"/>
-      <c r="E178" s="2" t="n"/>
-      <c r="F178" s="2" t="n"/>
-      <c r="G178" s="10" t="n"/>
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="n">
+        <v>115.98</v>
+      </c>
+      <c r="G178" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="H178" s="11" t="n"/>
       <c r="I178" s="5" t="n"/>
       <c r="J178" s="2" t="n"/>
